--- a/Input/Orient_familyCare/benefits1.xlsx
+++ b/Input/Orient_familyCare/benefits1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -235,7 +235,7 @@
     <t xml:space="preserve">AED 50 </t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full with $  co-pay</t>
+    <t xml:space="preserve">Covered in full with $ co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Covered for children up to 6 years as per MOH schedule  * Subject to pre-approval</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">Covered in full with NIL  co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full subject to pre-authorization with NILco-pay</t>
+    <t xml:space="preserve">Covered in full subject to pre-authorization with NIL co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">OP:  Covered in full with same deductible as selected on consultation  IP: Inside AUH- Covered in full with AED 500 deductible Outside AUH- OP and IP covered up to AED 10,000</t>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t xml:space="preserve">Consultations AED 50, pharma 10% co-pay/10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Consultations AED 50, pharma 30% co-pay/30%</t>
@@ -351,6 +354,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -446,8 +450,8 @@
   </sheetPr>
   <dimension ref="A1:BK4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -512,8 +516,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="128.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="2" width="33.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="2" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="62" style="0" width="11.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,6 +884,9 @@
       <c r="T4" s="0"/>
       <c r="U4" s="0"/>
       <c r="V4" s="1"/>
+      <c r="Y4" s="0" t="s">
+        <v>96</v>
+      </c>
       <c r="Z4" s="0"/>
       <c r="AA4" s="0"/>
       <c r="AB4" s="0"/>
@@ -889,7 +897,7 @@
       <c r="AI4" s="0"/>
       <c r="AM4" s="0"/>
       <c r="BF4" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BH4" s="2"/>
       <c r="BI4" s="0"/>
